--- a/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C377DF-0CF1-4BEF-BFC7-B1BB7D33CF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{259D31BA-2CE0-4C56-95C0-ED34051FDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A3737D17-36D3-473B-8316-B778FC793B1F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C619A97B-8359-4592-87E7-BE7AC51B75FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,6 +80,66 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -137,66 +197,6 @@
     <t>6,05%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
     <t>95,89%</t>
   </si>
   <si>
@@ -254,6 +254,60 @@
     <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
   </si>
   <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
     <t>87,63%</t>
   </si>
   <si>
@@ -308,60 +362,6 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
     <t>88,31%</t>
   </si>
   <si>
@@ -419,6 +419,60 @@
     <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
     <t>90,78%</t>
   </si>
   <si>
@@ -473,60 +527,6 @@
     <t>11,97%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
     <t>89,95%</t>
   </si>
   <si>
@@ -578,6 +578,48 @@
     <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
   </si>
   <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
     <t>97,96%</t>
   </si>
   <si>
@@ -618,48 +660,6 @@
   </si>
   <si>
     <t>4,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
   </si>
   <si>
     <t>98,12%</t>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D20229-56C0-453F-868C-D809FBE81336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10233693-2C46-4D72-B4A3-CB46909608D4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1360,10 +1360,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>361</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7">
-        <v>241027</v>
+        <v>55836</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -1375,10 +1375,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>339</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>228723</v>
+        <v>45714</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -1390,10 +1390,10 @@
         <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>700</v>
+        <v>153</v>
       </c>
       <c r="N7" s="7">
-        <v>469750</v>
+        <v>101551</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -1411,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>9483</v>
+        <v>3233</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -1426,10 +1426,10 @@
         <v>25</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>12387</v>
+        <v>3168</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -1441,10 +1441,10 @@
         <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>21870</v>
+        <v>6400</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1462,10 +1462,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7">
-        <v>250510</v>
+        <v>59069</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -1477,10 +1477,10 @@
         <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="I9" s="7">
-        <v>241110</v>
+        <v>48882</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -1492,10 +1492,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="7">
-        <v>734</v>
+        <v>163</v>
       </c>
       <c r="N9" s="7">
-        <v>491620</v>
+        <v>107951</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -1515,10 +1515,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="D10" s="7">
-        <v>55836</v>
+        <v>241027</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -1530,10 +1530,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>339</v>
       </c>
       <c r="I10" s="7">
-        <v>45714</v>
+        <v>228723</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
@@ -1545,10 +1545,10 @@
         <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>153</v>
+        <v>700</v>
       </c>
       <c r="N10" s="7">
-        <v>101551</v>
+        <v>469750</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1566,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>3233</v>
+        <v>9483</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>43</v>
@@ -1581,10 +1581,10 @@
         <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>3168</v>
+        <v>12387</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>46</v>
@@ -1596,10 +1596,10 @@
         <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>6400</v>
+        <v>21870</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>49</v>
@@ -1617,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="D12" s="7">
-        <v>59069</v>
+        <v>250510</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -1632,10 +1632,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="I12" s="7">
-        <v>48882</v>
+        <v>241110</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -1647,10 +1647,10 @@
         <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>163</v>
+        <v>734</v>
       </c>
       <c r="N12" s="7">
-        <v>107951</v>
+        <v>491620</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>
@@ -1833,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72288F01-BA2F-4162-B9A0-A2ECA9894D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2356B687-C6A3-479A-97DB-2E391618A253}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2088,10 +2088,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>226364</v>
+        <v>59638</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>71</v>
@@ -2103,10 +2103,10 @@
         <v>73</v>
       </c>
       <c r="H7" s="7">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>211366</v>
+        <v>53320</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>74</v>
@@ -2118,10 +2118,10 @@
         <v>76</v>
       </c>
       <c r="M7" s="7">
-        <v>632</v>
+        <v>159</v>
       </c>
       <c r="N7" s="7">
-        <v>437729</v>
+        <v>112959</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>77</v>
@@ -2139,10 +2139,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>31947</v>
+        <v>5920</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>80</v>
@@ -2154,10 +2154,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>31440</v>
+        <v>16048</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>83</v>
@@ -2169,10 +2169,10 @@
         <v>85</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>63388</v>
+        <v>21968</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>86</v>
@@ -2190,10 +2190,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>380</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7">
-        <v>258311</v>
+        <v>65558</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -2205,10 +2205,10 @@
         <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="I9" s="7">
-        <v>242806</v>
+        <v>69368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -2220,10 +2220,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="7">
-        <v>726</v>
+        <v>189</v>
       </c>
       <c r="N9" s="7">
-        <v>501117</v>
+        <v>134927</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -2243,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>59638</v>
+        <v>226364</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>89</v>
@@ -2258,10 +2258,10 @@
         <v>91</v>
       </c>
       <c r="H10" s="7">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="I10" s="7">
-        <v>53320</v>
+        <v>211366</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>92</v>
@@ -2273,10 +2273,10 @@
         <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>159</v>
+        <v>632</v>
       </c>
       <c r="N10" s="7">
-        <v>112959</v>
+        <v>437729</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>95</v>
@@ -2294,10 +2294,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>5920</v>
+        <v>31947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>98</v>
@@ -2309,10 +2309,10 @@
         <v>100</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>16048</v>
+        <v>31440</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>101</v>
@@ -2324,10 +2324,10 @@
         <v>103</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="N11" s="7">
-        <v>21968</v>
+        <v>63388</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>104</v>
@@ -2345,10 +2345,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="D12" s="7">
-        <v>65558</v>
+        <v>258311</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -2360,10 +2360,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="I12" s="7">
-        <v>69368</v>
+        <v>242806</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -2375,10 +2375,10 @@
         <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>189</v>
+        <v>726</v>
       </c>
       <c r="N12" s="7">
-        <v>134927</v>
+        <v>501117</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>
@@ -2561,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8AC216-320F-46C5-B0A5-AF41741F0E24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632468CF-A2F6-419A-AEFB-0B1C617635EB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2816,10 +2816,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>335</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7">
-        <v>248139</v>
+        <v>65971</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2831,10 +2831,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7">
-        <v>231841</v>
+        <v>82325</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2846,10 +2846,10 @@
         <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="N7" s="7">
-        <v>479980</v>
+        <v>148296</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>132</v>
@@ -2867,10 +2867,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>25198</v>
+        <v>9895</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2882,10 +2882,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>26798</v>
+        <v>4730</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2897,10 +2897,10 @@
         <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>51996</v>
+        <v>14625</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>141</v>
@@ -2918,10 +2918,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D9" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -2933,10 +2933,10 @@
         <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I9" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -2948,10 +2948,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="7">
-        <v>732</v>
+        <v>241</v>
       </c>
       <c r="N9" s="7">
-        <v>531976</v>
+        <v>162921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -2971,10 +2971,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="D10" s="7">
-        <v>65971</v>
+        <v>248139</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2986,10 +2986,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>124</v>
+        <v>325</v>
       </c>
       <c r="I10" s="7">
-        <v>82325</v>
+        <v>231841</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -3001,10 +3001,10 @@
         <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="N10" s="7">
-        <v>148296</v>
+        <v>479980</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>150</v>
@@ -3022,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>9895</v>
+        <v>25198</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -3037,10 +3037,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>4730</v>
+        <v>26798</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -3052,10 +3052,10 @@
         <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="N11" s="7">
-        <v>14625</v>
+        <v>51996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>159</v>
@@ -3073,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D12" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -3088,10 +3088,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -3103,10 +3103,10 @@
         <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>241</v>
+        <v>732</v>
       </c>
       <c r="N12" s="7">
-        <v>162921</v>
+        <v>531976</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>
@@ -3289,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD2AAD-F78C-484E-B171-64A4DF7F2549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2545EF51-78D5-4427-99F5-7A9347EF1678}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3544,40 +3544,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>220041</v>
+        <v>40954</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>161623</v>
+        <v>32784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="M7" s="7">
-        <v>466</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>381664</v>
+        <v>73738</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>183</v>
@@ -3595,10 +3595,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>4584</v>
+        <v>422</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>186</v>
@@ -3607,28 +3607,28 @@
         <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>6922</v>
+        <v>1217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>11506</v>
+        <v>1639</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -3646,10 +3646,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
-        <v>224625</v>
+        <v>41376</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -3661,10 +3661,10 @@
         <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -3676,10 +3676,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="7">
-        <v>481</v>
+        <v>94</v>
       </c>
       <c r="N9" s="7">
-        <v>393170</v>
+        <v>75377</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -3699,40 +3699,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="D10" s="7">
-        <v>40954</v>
+        <v>220041</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>216</v>
+      </c>
+      <c r="I10" s="7">
+        <v>161623</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="7">
-        <v>43</v>
-      </c>
-      <c r="I10" s="7">
-        <v>32784</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="M10" s="7">
-        <v>91</v>
+        <v>466</v>
       </c>
       <c r="N10" s="7">
-        <v>73738</v>
+        <v>381664</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>197</v>
@@ -3750,10 +3750,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>422</v>
+        <v>4584</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>200</v>
@@ -3762,28 +3762,28 @@
         <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6922</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1217</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>203</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>1639</v>
+        <v>11506</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>204</v>
@@ -3801,10 +3801,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D12" s="7">
-        <v>41376</v>
+        <v>224625</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -3816,10 +3816,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -3831,10 +3831,10 @@
         <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>94</v>
+        <v>481</v>
       </c>
       <c r="N12" s="7">
-        <v>75377</v>
+        <v>393170</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>

--- a/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{259D31BA-2CE0-4C56-95C0-ED34051FDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F365DFF0-8054-4D9A-A95D-75F2819B2273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C619A97B-8359-4592-87E7-BE7AC51B75FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DBF132D-E260-4268-ADED-D67CD27312E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="225">
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="231">
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,652 +68,670 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>90,97%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reido mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
 </sst>
 </file>
@@ -724,7 +742,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -820,39 +838,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -904,7 +922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1015,13 +1033,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1030,6 +1041,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1094,19 +1112,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10233693-2C46-4D72-B4A3-CB46909608D4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0097FEEE-5348-42CD-9FF4-2D35AE4C7138}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1360,49 +1398,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>85</v>
-      </c>
-      <c r="D7" s="7">
-        <v>55836</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>68</v>
-      </c>
-      <c r="I7" s="7">
-        <v>45714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>153</v>
-      </c>
-      <c r="N7" s="7">
-        <v>101551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,49 +1443,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,102 +1488,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>90</v>
-      </c>
-      <c r="D9" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>163</v>
-      </c>
-      <c r="N9" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>241027</v>
+        <v>4935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>228723</v>
+        <v>6848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7">
-        <v>700</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>469750</v>
+        <v>11783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,49 +1586,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7">
-        <v>9483</v>
+        <v>118546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="I11" s="7">
-        <v>12387</v>
+        <v>104863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="N11" s="7">
-        <v>21870</v>
+        <v>223409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,102 +1637,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>250510</v>
+        <v>123481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="I12" s="7">
-        <v>241110</v>
+        <v>111711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>734</v>
+        <v>354</v>
       </c>
       <c r="N12" s="7">
-        <v>491620</v>
+        <v>235192</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>446</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>296862</v>
+        <v>7780</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>274437</v>
+        <v>8708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>853</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>571300</v>
+        <v>16488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,49 +1741,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7">
-        <v>12716</v>
+        <v>178317</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7">
-        <v>15555</v>
+        <v>169574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>44</v>
+        <v>518</v>
       </c>
       <c r="N14" s="7">
-        <v>28271</v>
+        <v>347890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,55 +1792,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>280</v>
+      </c>
+      <c r="D15" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>263</v>
+      </c>
+      <c r="I15" s="7">
+        <v>178282</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>543</v>
+      </c>
+      <c r="N15" s="7">
+        <v>364378</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12716</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15555</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
+        <v>44</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28271</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>446</v>
+      </c>
+      <c r="D17" s="7">
+        <v>296862</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>407</v>
+      </c>
+      <c r="I17" s="7">
+        <v>274437</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="7">
+        <v>853</v>
+      </c>
+      <c r="N17" s="7">
+        <v>571300</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>466</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>309578</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>431</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>289992</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>897</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>599571</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1833,8 +2014,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2356B687-C6A3-479A-97DB-2E391618A253}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768861E4-DC53-4DE7-8FF6-8504C6DA6072}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1850,7 +2031,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2088,49 +2269,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>83</v>
-      </c>
-      <c r="D7" s="7">
-        <v>59638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
-      </c>
-      <c r="I7" s="7">
-        <v>53320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>159</v>
-      </c>
-      <c r="N7" s="7">
-        <v>112959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,49 +2314,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
-      </c>
-      <c r="I8" s="7">
-        <v>16048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>30</v>
-      </c>
-      <c r="N8" s="7">
-        <v>21968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,102 +2359,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>91</v>
-      </c>
-      <c r="D9" s="7">
-        <v>65558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>98</v>
-      </c>
-      <c r="I9" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>189</v>
-      </c>
-      <c r="N9" s="7">
-        <v>134927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>226364</v>
+        <v>19134</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>211366</v>
+        <v>26843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>437729</v>
+        <v>45977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,49 +2457,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="D11" s="7">
-        <v>31947</v>
+        <v>134729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="I11" s="7">
-        <v>31440</v>
+        <v>123122</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="N11" s="7">
-        <v>63388</v>
+        <v>257851</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,102 +2508,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>380</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7">
-        <v>258311</v>
+        <v>153863</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>242806</v>
+        <v>149965</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>726</v>
+        <v>435</v>
       </c>
       <c r="N12" s="7">
-        <v>501117</v>
+        <v>303828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>415</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>286001</v>
+        <v>18734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
-        <v>376</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>264686</v>
+        <v>20645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>791</v>
+        <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>550687</v>
+        <v>39379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,49 +2612,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>37868</v>
+        <v>151272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="I14" s="7">
-        <v>47488</v>
+        <v>141564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>124</v>
+        <v>421</v>
       </c>
       <c r="N14" s="7">
-        <v>85356</v>
+        <v>292836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,55 +2663,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>250</v>
+      </c>
+      <c r="D15" s="7">
+        <v>170006</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>230</v>
+      </c>
+      <c r="I15" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>480</v>
+      </c>
+      <c r="N15" s="7">
+        <v>332215</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
+        <v>37868</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
+        <v>68</v>
+      </c>
+      <c r="I16" s="7">
+        <v>47488</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="7">
+        <v>124</v>
+      </c>
+      <c r="N16" s="7">
+        <v>85356</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>415</v>
+      </c>
+      <c r="D17" s="7">
+        <v>286001</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="7">
+        <v>376</v>
+      </c>
+      <c r="I17" s="7">
+        <v>264686</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="7">
+        <v>791</v>
+      </c>
+      <c r="N17" s="7">
+        <v>550687</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>471</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>323869</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>444</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>312174</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>915</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>636043</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2561,8 +2885,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632468CF-A2F6-419A-AEFB-0B1C617635EB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE977D9A-0FCB-4B69-8641-CECC9C180D68}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2816,49 +3140,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>96</v>
-      </c>
-      <c r="D7" s="7">
-        <v>65971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>124</v>
-      </c>
-      <c r="I7" s="7">
-        <v>82325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>220</v>
-      </c>
-      <c r="N7" s="7">
-        <v>148296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,49 +3185,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7">
-        <v>9895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7">
-        <v>14625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,102 +3230,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>110</v>
-      </c>
-      <c r="D9" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>131</v>
-      </c>
-      <c r="I9" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>241</v>
-      </c>
-      <c r="N9" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>248139</v>
+        <v>16217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>231841</v>
+        <v>15191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>660</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>479980</v>
+        <v>31408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,49 +3328,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>25198</v>
+        <v>162394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="I11" s="7">
-        <v>26798</v>
+        <v>165696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>72</v>
+        <v>464</v>
       </c>
       <c r="N11" s="7">
-        <v>51996</v>
+        <v>328090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,102 +3379,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D12" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I12" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>732</v>
+        <v>509</v>
       </c>
       <c r="N12" s="7">
-        <v>531976</v>
+        <v>359498</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>431</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>314111</v>
+        <v>18876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
-        <v>449</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>314166</v>
+        <v>16337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>880</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>628276</v>
+        <v>35213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,49 +3483,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>35092</v>
+        <v>151716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>31528</v>
+        <v>148470</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
-        <v>93</v>
+        <v>416</v>
       </c>
       <c r="N14" s="7">
-        <v>66621</v>
+        <v>300186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,55 +3534,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>230</v>
+      </c>
+      <c r="D15" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>234</v>
+      </c>
+      <c r="I15" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>464</v>
+      </c>
+      <c r="N15" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7">
+        <v>35092</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="7">
+        <v>44</v>
+      </c>
+      <c r="I16" s="7">
+        <v>31528</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="7">
+        <v>93</v>
+      </c>
+      <c r="N16" s="7">
+        <v>66621</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>431</v>
+      </c>
+      <c r="D17" s="7">
+        <v>314111</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="7">
+        <v>449</v>
+      </c>
+      <c r="I17" s="7">
+        <v>314166</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" s="7">
+        <v>880</v>
+      </c>
+      <c r="N17" s="7">
+        <v>628276</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>480</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>349203</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>493</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>345694</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>973</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>694897</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3289,8 +3756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2545EF51-78D5-4427-99F5-7A9347EF1678}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DA9D6B-38E3-43AC-AFD8-95A7C2C4D17D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3544,49 +4011,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
-      </c>
-      <c r="D7" s="7">
-        <v>40954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
-      </c>
-      <c r="I7" s="7">
-        <v>32784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>91</v>
-      </c>
-      <c r="N7" s="7">
-        <v>73738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +4056,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,102 +4101,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
-      </c>
-      <c r="N9" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>220041</v>
+        <v>3824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>161623</v>
+        <v>2806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
-        <v>466</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>381664</v>
+        <v>6630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,49 +4199,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>4584</v>
+        <v>95524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>6922</v>
+        <v>68859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="N11" s="7">
-        <v>11506</v>
+        <v>164384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,102 +4250,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>224625</v>
+        <v>99348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>481</v>
+        <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>393170</v>
+        <v>171014</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>260995</v>
+        <v>1182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>194406</v>
+        <v>5333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
-        <v>557</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>455401</v>
+        <v>6515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,49 +4354,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7">
-        <v>5006</v>
+        <v>165470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="I14" s="7">
-        <v>8140</v>
+        <v>125547</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="N14" s="7">
-        <v>13145</v>
+        <v>291018</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,55 +4405,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>186</v>
+      </c>
+      <c r="D15" s="7">
+        <v>166652</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>175</v>
+      </c>
+      <c r="I15" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>361</v>
+      </c>
+      <c r="N15" s="7">
+        <v>297533</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5006</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8140</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>13145</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>298</v>
+      </c>
+      <c r="D17" s="7">
+        <v>260995</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H17" s="7">
+        <v>259</v>
+      </c>
+      <c r="I17" s="7">
+        <v>194406</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="7">
+        <v>557</v>
+      </c>
+      <c r="N17" s="7">
+        <v>455401</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>305</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>266001</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>270</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>202546</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>575</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>468546</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F365DFF0-8054-4D9A-A95D-75F2819B2273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8E5B99-8861-4C6B-9EB6-D1CC9FC4E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DBF132D-E260-4268-ADED-D67CD27312E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0855D92-DE9B-4FC1-A6E3-E7B80CE63FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="233">
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -89,55 +89,55 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,109 +149,109 @@
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -266,31 +266,31 @@
     <t>8,51%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>17,39%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>82,13%</t>
+    <t>82,61%</t>
   </si>
   <si>
     <t>91,49%</t>
@@ -299,280 +299,280 @@
     <t>82,1%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>15,34%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>88,98%</t>
   </si>
   <si>
-    <t>84,66%</t>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
     <t>9,08%</t>
   </si>
   <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>93,73%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>11,63%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>88,37%</t>
   </si>
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
@@ -581,55 +581,55 @@
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -647,16 +647,16 @@
     <t>1,77%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>8,21%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -671,7 +671,7 @@
     <t>95,92%</t>
   </si>
   <si>
-    <t>91,94%</t>
+    <t>91,79%</t>
   </si>
   <si>
     <t>98,23%</t>
@@ -680,58 +680,64 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0097FEEE-5348-42CD-9FF4-2D35AE4C7138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81379681-8AC5-459E-BAFA-B5EDE15ABC8B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2014,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768861E4-DC53-4DE7-8FF6-8504C6DA6072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9ED25C-EF82-4A8A-8601-9E3A811A7B5E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2570,10 +2576,10 @@
         <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2582,13 +2588,13 @@
         <v>20645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2597,13 +2603,13 @@
         <v>39379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2624,13 @@
         <v>151272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -2633,13 +2639,13 @@
         <v>141564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>421</v>
@@ -2648,13 +2654,13 @@
         <v>292836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2728,13 @@
         <v>37868</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -2737,13 +2743,13 @@
         <v>47488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -2752,13 +2758,13 @@
         <v>85356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2779,13 @@
         <v>286001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7">
         <v>376</v>
@@ -2788,13 +2794,13 @@
         <v>264686</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -2803,13 +2809,13 @@
         <v>550687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE977D9A-0FCB-4B69-8641-CECC9C180D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8644AC5B-FE7B-426B-98FB-DB546F8ED28E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3283,13 +3289,13 @@
         <v>16217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3298,13 +3304,13 @@
         <v>15191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -3313,13 +3319,13 @@
         <v>31408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3340,13 @@
         <v>162394</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -3349,13 +3355,13 @@
         <v>165696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>464</v>
@@ -3364,13 +3370,13 @@
         <v>328090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3444,13 @@
         <v>18876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3453,13 +3459,13 @@
         <v>16337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3468,13 +3474,13 @@
         <v>35213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3495,13 @@
         <v>151716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -3504,13 +3510,13 @@
         <v>148470</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>416</v>
@@ -3519,13 +3525,13 @@
         <v>300186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3599,13 @@
         <v>35092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3608,13 +3614,13 @@
         <v>31528</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -3623,13 +3629,13 @@
         <v>66621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3650,13 @@
         <v>314111</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>449</v>
@@ -3659,13 +3665,13 @@
         <v>314166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>880</v>
@@ -3674,13 +3680,13 @@
         <v>628276</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,7 +3762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DA9D6B-38E3-43AC-AFD8-95A7C2C4D17D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925AEA1-2BBB-4961-B45F-390F56F79355}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4470,7 +4476,7 @@
         <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4479,13 +4485,13 @@
         <v>8140</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4494,13 +4500,13 @@
         <v>13145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4521,13 @@
         <v>260995</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
@@ -4530,13 +4536,13 @@
         <v>194406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>557</v>
@@ -4545,13 +4551,13 @@
         <v>455401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8E5B99-8861-4C6B-9EB6-D1CC9FC4E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBEEFB45-1641-46F7-BE81-82A8DDCFA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0855D92-DE9B-4FC1-A6E3-E7B80CE63FF5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{87079392-0CD6-48C7-A2F3-F9F4B4874716}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -86,658 +86,658 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,37%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>Menores según si se han reído mucho o muchísimo otros menores de él/ella (autopercepción menor) en 2023 (Tasa respuesta: 29,95%)</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81379681-8AC5-459E-BAFA-B5EDE15ABC8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C325E52-338C-426D-8AAA-93FB7E7683AA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1541,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>4935</v>
+        <v>6848</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>15</v>
@@ -1556,10 +1556,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6848</v>
+        <v>4935</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>18</v>
@@ -1583,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1592,34 +1592,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>157</v>
+      </c>
+      <c r="D11" s="7">
+        <v>104863</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
         <v>178</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>118546</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="7">
-        <v>157</v>
-      </c>
-      <c r="I11" s="7">
-        <v>104863</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>335</v>
@@ -1628,13 +1628,13 @@
         <v>223409</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,34 +1643,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>168</v>
+      </c>
+      <c r="D12" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>123481</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>168</v>
-      </c>
-      <c r="I12" s="7">
-        <v>111711</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>354</v>
@@ -1679,51 +1679,51 @@
         <v>235192</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8707</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>7780</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8708</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1732,13 +1732,13 @@
         <v>16488</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,34 +1747,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
+        <v>250</v>
+      </c>
+      <c r="D14" s="7">
+        <v>169574</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7">
         <v>268</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>178317</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="7">
-        <v>250</v>
-      </c>
-      <c r="I14" s="7">
-        <v>169574</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M14" s="7">
         <v>518</v>
@@ -1783,13 +1783,13 @@
         <v>347890</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,34 +1798,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>263</v>
+      </c>
+      <c r="D15" s="7">
+        <v>178281</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>280</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>186097</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>263</v>
-      </c>
-      <c r="I15" s="7">
-        <v>178282</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>543</v>
@@ -1834,13 +1834,13 @@
         <v>364378</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,34 +1851,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15555</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="7">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>12716</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15555</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -1887,13 +1887,13 @@
         <v>28271</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,34 +1902,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>407</v>
+      </c>
+      <c r="D17" s="7">
+        <v>274437</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
         <v>446</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>296862</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="7">
-        <v>407</v>
-      </c>
-      <c r="I17" s="7">
-        <v>274437</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>853</v>
@@ -1938,13 +1938,13 @@
         <v>571300</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,34 +1953,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>431</v>
+      </c>
+      <c r="D18" s="7">
+        <v>289992</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7">
         <v>466</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>309578</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>431</v>
-      </c>
-      <c r="I18" s="7">
-        <v>289992</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>897</v>
@@ -1989,18 +1989,18 @@
         <v>599571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9ED25C-EF82-4A8A-8601-9E3A811A7B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A951E057-74C2-4A60-9FBB-78F894D381D4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2412,34 +2412,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7">
+        <v>26843</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="7">
         <v>27</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>19134</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26843</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -2448,13 +2448,13 @@
         <v>45977</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,34 +2463,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>176</v>
+      </c>
+      <c r="D11" s="7">
+        <v>123122</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="7">
         <v>194</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>134729</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="7">
-        <v>176</v>
-      </c>
-      <c r="I11" s="7">
-        <v>123122</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>370</v>
@@ -2499,13 +2499,13 @@
         <v>257851</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,34 +2514,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
         <v>221</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>153863</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>149965</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>435</v>
@@ -2550,51 +2550,51 @@
         <v>303828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20645</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>18734</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20645</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2603,13 +2603,13 @@
         <v>39379</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,34 +2618,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
+        <v>200</v>
+      </c>
+      <c r="D14" s="7">
+        <v>141564</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="7">
         <v>221</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>151272</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="7">
-        <v>200</v>
-      </c>
-      <c r="I14" s="7">
-        <v>141564</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>421</v>
@@ -2654,13 +2654,13 @@
         <v>292836</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,34 +2669,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>230</v>
+      </c>
+      <c r="D15" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>170006</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>230</v>
-      </c>
-      <c r="I15" s="7">
-        <v>162209</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>480</v>
@@ -2705,13 +2705,13 @@
         <v>332215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,34 +2722,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47488</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
         <v>56</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>37868</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="7">
-        <v>68</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47488</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -2758,13 +2758,13 @@
         <v>85356</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,34 +2773,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>376</v>
+      </c>
+      <c r="D17" s="7">
+        <v>264686</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="7">
         <v>415</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>286001</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="7">
-        <v>376</v>
-      </c>
-      <c r="I17" s="7">
-        <v>264686</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -2809,13 +2809,13 @@
         <v>550687</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,34 +2824,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>444</v>
+      </c>
+      <c r="D18" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7">
         <v>471</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>323869</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>444</v>
-      </c>
-      <c r="I18" s="7">
-        <v>312174</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>915</v>
@@ -2860,18 +2860,18 @@
         <v>636043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2891,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8644AC5B-FE7B-426B-98FB-DB546F8ED28E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542C71A-2134-4334-B4FA-20DCFD37D956}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2908,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3283,34 +3283,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15191</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>16217</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="7">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15191</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -3319,13 +3319,13 @@
         <v>31408</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,34 +3334,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>237</v>
+      </c>
+      <c r="D11" s="7">
+        <v>165696</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="7">
         <v>227</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>162394</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="7">
-        <v>237</v>
-      </c>
-      <c r="I11" s="7">
-        <v>165696</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>464</v>
@@ -3385,34 +3385,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>259</v>
+      </c>
+      <c r="D12" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
         <v>250</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>178611</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>259</v>
-      </c>
-      <c r="I12" s="7">
-        <v>180887</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>509</v>
@@ -3421,27 +3421,27 @@
         <v>359498</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>18876</v>
+        <v>16337</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>144</v>
@@ -3453,10 +3453,10 @@
         <v>146</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>16337</v>
+        <v>18876</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>147</v>
@@ -3489,10 +3489,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D14" s="7">
-        <v>151716</v>
+        <v>148470</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>153</v>
@@ -3504,10 +3504,10 @@
         <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I14" s="7">
-        <v>148470</v>
+        <v>151716</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>156</v>
@@ -3540,34 +3540,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>230</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>170592</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
-      <c r="I15" s="7">
-        <v>164807</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>464</v>
@@ -3576,13 +3576,13 @@
         <v>335399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,10 +3593,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>35092</v>
+        <v>31528</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>162</v>
@@ -3605,22 +3605,22 @@
         <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="7">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7">
+        <v>35092</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>31528</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -3629,10 +3629,10 @@
         <v>66621</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>169</v>
@@ -3644,34 +3644,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D17" s="7">
-        <v>314111</v>
+        <v>314166</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>431</v>
+      </c>
+      <c r="I17" s="7">
+        <v>314111</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="7">
-        <v>449</v>
-      </c>
-      <c r="I17" s="7">
-        <v>314166</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>880</v>
@@ -3680,13 +3680,13 @@
         <v>628276</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,34 +3695,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>493</v>
+      </c>
+      <c r="D18" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7">
         <v>480</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>349203</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>493</v>
-      </c>
-      <c r="I18" s="7">
-        <v>345694</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>973</v>
@@ -3731,18 +3731,18 @@
         <v>694897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3762,7 +3762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925AEA1-2BBB-4961-B45F-390F56F79355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7828E7-938D-4831-AEFA-8ACD3815C399}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4154,10 +4154,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3824</v>
+        <v>2773</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>179</v>
@@ -4169,10 +4169,10 @@
         <v>181</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>2806</v>
+        <v>3984</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>182</v>
@@ -4187,7 +4187,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>6630</v>
+        <v>6757</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>185</v>
@@ -4205,10 +4205,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>95524</v>
+        <v>65152</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>188</v>
@@ -4220,10 +4220,10 @@
         <v>190</v>
       </c>
       <c r="H11" s="7">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="I11" s="7">
-        <v>68859</v>
+        <v>95381</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>191</v>
@@ -4238,7 +4238,7 @@
         <v>205</v>
       </c>
       <c r="N11" s="7">
-        <v>164384</v>
+        <v>160533</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>194</v>
@@ -4256,63 +4256,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>95</v>
+      </c>
+      <c r="D12" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
         <v>119</v>
       </c>
-      <c r="D12" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>95</v>
-      </c>
       <c r="I12" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>1182</v>
+        <v>5157</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>197</v>
@@ -4324,10 +4324,10 @@
         <v>199</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>5333</v>
+        <v>1229</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>200</v>
@@ -4342,7 +4342,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>6515</v>
+        <v>6386</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>203</v>
@@ -4360,10 +4360,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>165470</v>
+        <v>137390</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>206</v>
@@ -4375,10 +4375,10 @@
         <v>208</v>
       </c>
       <c r="H14" s="7">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I14" s="7">
-        <v>125547</v>
+        <v>170374</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>209</v>
@@ -4393,7 +4393,7 @@
         <v>352</v>
       </c>
       <c r="N14" s="7">
-        <v>291018</v>
+        <v>307764</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>212</v>
@@ -4411,49 +4411,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>175</v>
+      </c>
+      <c r="D15" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>186</v>
       </c>
-      <c r="D15" s="7">
-        <v>166652</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>175</v>
-      </c>
       <c r="I15" s="7">
-        <v>130880</v>
+        <v>171603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>361</v>
       </c>
       <c r="N15" s="7">
-        <v>297533</v>
+        <v>314150</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,10 +4464,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>5006</v>
+        <v>7930</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>215</v>
@@ -4479,10 +4479,10 @@
         <v>217</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>8140</v>
+        <v>5213</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>218</v>
@@ -4497,7 +4497,7 @@
         <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>13145</v>
+        <v>13143</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>221</v>
@@ -4515,10 +4515,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7">
-        <v>260995</v>
+        <v>202542</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>224</v>
@@ -4530,10 +4530,10 @@
         <v>226</v>
       </c>
       <c r="H17" s="7">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="I17" s="7">
-        <v>194406</v>
+        <v>265755</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>227</v>
@@ -4548,7 +4548,7 @@
         <v>557</v>
       </c>
       <c r="N17" s="7">
-        <v>455401</v>
+        <v>468297</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>230</v>
@@ -4566,54 +4566,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>270</v>
+      </c>
+      <c r="D18" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7">
         <v>305</v>
       </c>
-      <c r="D18" s="7">
-        <v>266001</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>270</v>
-      </c>
       <c r="I18" s="7">
-        <v>202546</v>
+        <v>270968</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>575</v>
       </c>
       <c r="N18" s="7">
-        <v>468546</v>
+        <v>481440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
